--- a/base/data_set/account_data.xlsx
+++ b/base/data_set/account_data.xlsx
@@ -373,7 +373,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,6 +446,16 @@
     <col width="15" customWidth="1" min="63" max="63"/>
     <col width="15" customWidth="1" min="64" max="64"/>
     <col width="15" customWidth="1" min="65" max="65"/>
+    <col width="15" customWidth="1" min="66" max="66"/>
+    <col width="30" customWidth="1" min="67" max="67"/>
+    <col width="15" customWidth="1" min="68" max="68"/>
+    <col width="15" customWidth="1" min="69" max="69"/>
+    <col width="15" customWidth="1" min="70" max="70"/>
+    <col width="15" customWidth="1" min="71" max="71"/>
+    <col width="30" customWidth="1" min="72" max="72"/>
+    <col width="15" customWidth="1" min="73" max="73"/>
+    <col width="15" customWidth="1" min="74" max="74"/>
+    <col width="15" customWidth="1" min="75" max="75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -474,18 +484,18 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>October</t>
+          <t>November</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr"/>
       <c r="C2" s="3" t="n">
-        <v>2242</v>
+        <v>3802</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>34504148</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>44152</v>
+        <v>44190</v>
       </c>
     </row>
     <row r="3">
@@ -496,7 +506,7 @@
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>2441</v>
+        <v>2707</v>
       </c>
       <c r="D3" s="3" t="n"/>
     </row>
@@ -508,7 +518,7 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>37</v>
+        <v>1286</v>
       </c>
       <c r="D4" s="3" t="n"/>
     </row>
@@ -520,7 +530,7 @@
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>-178</v>
+        <v>-131</v>
       </c>
       <c r="D5" s="3" t="n"/>
     </row>
@@ -532,7 +542,7 @@
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>-58</v>
+        <v>-60</v>
       </c>
       <c r="D6" s="3" t="n"/>
     </row>
@@ -545,18 +555,18 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>December</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr"/>
       <c r="C8" s="3" t="n">
-        <v>1479</v>
+        <v>884</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>34504148</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>44187</v>
+        <v>44221</v>
       </c>
     </row>
     <row r="9">
@@ -567,7 +577,7 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>955</v>
+        <v>1260</v>
       </c>
       <c r="D9" s="3" t="n"/>
     </row>
@@ -579,39 +589,62 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>680</v>
+        <v>-376</v>
       </c>
       <c r="D10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr"/>
-      <c r="B11" s="2" t="inlineStr">
-        <is>
-          <t>Broken technique</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="n">
-        <v>-103</v>
-      </c>
+      <c r="B11" s="2" t="n"/>
+      <c r="C11" s="3" t="n"/>
       <c r="D11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr"/>
-      <c r="B12" s="2" t="inlineStr">
-        <is>
-          <t>Coach session</t>
-        </is>
-      </c>
+      <c r="A12" s="2" t="inlineStr">
+        <is>
+          <t>December</t>
+        </is>
+      </c>
+      <c r="B12" s="2" t="inlineStr"/>
       <c r="C12" s="3" t="n">
-        <v>-53</v>
-      </c>
-      <c r="D12" s="3" t="n"/>
+        <v>-236</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v/>
+      </c>
+      <c r="E12" s="4" t="n">
+        <v>44221</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr"/>
-      <c r="B13" s="2" t="n"/>
-      <c r="C13" s="3" t="n"/>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>Broken technique</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>-86</v>
+      </c>
       <c r="D13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr"/>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Coach session</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="n">
+        <v>-150</v>
+      </c>
+      <c r="D14" s="3" t="n"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr"/>
+      <c r="B15" s="2" t="n"/>
+      <c r="C15" s="3" t="n"/>
+      <c r="D15" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/base/data_set/account_data.xlsx
+++ b/base/data_set/account_data.xlsx
@@ -373,7 +373,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,16 +446,6 @@
     <col width="15" customWidth="1" min="63" max="63"/>
     <col width="15" customWidth="1" min="64" max="64"/>
     <col width="15" customWidth="1" min="65" max="65"/>
-    <col width="15" customWidth="1" min="66" max="66"/>
-    <col width="30" customWidth="1" min="67" max="67"/>
-    <col width="15" customWidth="1" min="68" max="68"/>
-    <col width="15" customWidth="1" min="69" max="69"/>
-    <col width="15" customWidth="1" min="70" max="70"/>
-    <col width="15" customWidth="1" min="71" max="71"/>
-    <col width="30" customWidth="1" min="72" max="72"/>
-    <col width="15" customWidth="1" min="73" max="73"/>
-    <col width="15" customWidth="1" min="74" max="74"/>
-    <col width="15" customWidth="1" min="75" max="75"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -484,18 +474,18 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>November</t>
+          <t>December</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr"/>
       <c r="C2" s="3" t="n">
-        <v>3802</v>
+        <v>2253</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>34504148</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>44190</v>
+        <v>44221</v>
       </c>
     </row>
     <row r="3">
@@ -506,7 +496,7 @@
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>2707</v>
+        <v>2689</v>
       </c>
       <c r="D3" s="3" t="n"/>
     </row>
@@ -518,7 +508,7 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>1286</v>
+        <v>-230</v>
       </c>
       <c r="D4" s="3" t="n"/>
     </row>
@@ -530,7 +520,7 @@
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>-131</v>
+        <v>-88</v>
       </c>
       <c r="D5" s="3" t="n"/>
     </row>
@@ -542,7 +532,7 @@
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>-60</v>
+        <v>-118</v>
       </c>
       <c r="D6" s="3" t="n"/>
     </row>
@@ -555,18 +545,18 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>December</t>
+          <t>January</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr"/>
       <c r="C8" s="3" t="n">
-        <v>884</v>
+        <v>2783</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>34504148</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>44221</v>
+        <v>44252</v>
       </c>
     </row>
     <row r="9">
@@ -577,7 +567,7 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>1260</v>
+        <v>2642</v>
       </c>
       <c r="D9" s="3" t="n"/>
     </row>
@@ -589,62 +579,39 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>-376</v>
+        <v>355</v>
       </c>
       <c r="D10" s="3" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="inlineStr"/>
-      <c r="B11" s="2" t="n"/>
-      <c r="C11" s="3" t="n"/>
+      <c r="B11" s="2" t="inlineStr">
+        <is>
+          <t>Broken technique</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>-72</v>
+      </c>
       <c r="D11" s="3" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="2" t="inlineStr">
-        <is>
-          <t>December</t>
-        </is>
-      </c>
-      <c r="B12" s="2" t="inlineStr"/>
+      <c r="A12" s="2" t="inlineStr"/>
+      <c r="B12" s="2" t="inlineStr">
+        <is>
+          <t>Coach session</t>
+        </is>
+      </c>
       <c r="C12" s="3" t="n">
-        <v>-236</v>
-      </c>
-      <c r="D12" s="3" t="n">
-        <v/>
-      </c>
-      <c r="E12" s="4" t="n">
-        <v>44221</v>
-      </c>
+        <v>-142</v>
+      </c>
+      <c r="D12" s="3" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="inlineStr"/>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>Broken technique</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="n">
-        <v>-86</v>
-      </c>
+      <c r="B13" s="2" t="n"/>
+      <c r="C13" s="3" t="n"/>
       <c r="D13" s="3" t="n"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr"/>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>Coach session</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="n">
-        <v>-150</v>
-      </c>
-      <c r="D14" s="3" t="n"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="inlineStr"/>
-      <c r="B15" s="2" t="n"/>
-      <c r="C15" s="3" t="n"/>
-      <c r="D15" s="3" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/base/data_set/account_data.xlsx
+++ b/base/data_set/account_data.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="B2" s="2" t="inlineStr"/>
       <c r="C2" s="3" t="n">
-        <v>2253</v>
+        <v>3049</v>
       </c>
       <c r="D2" s="3" t="n">
         <v>34504148</v>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="C3" s="3" t="n">
-        <v>2689</v>
+        <v>2669</v>
       </c>
       <c r="D3" s="3" t="n"/>
     </row>
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="C4" s="3" t="n">
-        <v>-230</v>
+        <v>614</v>
       </c>
       <c r="D4" s="3" t="n"/>
     </row>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="C5" s="3" t="n">
-        <v>-88</v>
+        <v>-98</v>
       </c>
       <c r="D5" s="3" t="n"/>
     </row>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C6" s="3" t="n">
-        <v>-118</v>
+        <v>-136</v>
       </c>
       <c r="D6" s="3" t="n"/>
     </row>
@@ -550,7 +550,7 @@
       </c>
       <c r="B8" s="2" t="inlineStr"/>
       <c r="C8" s="3" t="n">
-        <v>2783</v>
+        <v>1316</v>
       </c>
       <c r="D8" s="3" t="n">
         <v>34504148</v>
@@ -567,7 +567,7 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>2642</v>
+        <v>1008</v>
       </c>
       <c r="D9" s="3" t="n"/>
     </row>
@@ -579,7 +579,7 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>355</v>
+        <v>612</v>
       </c>
       <c r="D10" s="3" t="n"/>
     </row>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>-72</v>
+        <v>-140</v>
       </c>
       <c r="D11" s="3" t="n"/>
     </row>
@@ -603,7 +603,7 @@
         </is>
       </c>
       <c r="C12" s="3" t="n">
-        <v>-142</v>
+        <v>-164</v>
       </c>
       <c r="D12" s="3" t="n"/>
     </row>
